--- a/data/pca/factorExposure/factorExposure_2018-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01339820510919776</v>
+        <v>-0.02227865003480356</v>
       </c>
       <c r="C2">
-        <v>0.02897568648919024</v>
+        <v>0.0164753089186752</v>
       </c>
       <c r="D2">
-        <v>0.001738133863304173</v>
+        <v>0.02407677465300873</v>
       </c>
       <c r="E2">
-        <v>-0.02535983511533603</v>
+        <v>0.01528099938219043</v>
       </c>
       <c r="F2">
-        <v>0.1152225309971074</v>
+        <v>-0.007942072164496683</v>
       </c>
       <c r="G2">
-        <v>0.06979228979581954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04708019213070147</v>
+      </c>
+      <c r="H2">
+        <v>0.04727550023821783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08626958541320202</v>
+        <v>-0.08849009686852867</v>
       </c>
       <c r="C3">
-        <v>0.0161102868235596</v>
+        <v>-0.01634250651006082</v>
       </c>
       <c r="D3">
-        <v>0.04519875046107871</v>
+        <v>0.04240507186724405</v>
       </c>
       <c r="E3">
-        <v>-0.1090779307540668</v>
+        <v>0.01571092754442578</v>
       </c>
       <c r="F3">
-        <v>0.4157439513024593</v>
+        <v>0.001577776418994052</v>
       </c>
       <c r="G3">
-        <v>0.2063749390587069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1729888384278456</v>
+      </c>
+      <c r="H3">
+        <v>0.1502627385357964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04081888412310943</v>
+        <v>-0.05048679483421613</v>
       </c>
       <c r="C4">
-        <v>0.005777081469857698</v>
+        <v>0.0004135849935619372</v>
       </c>
       <c r="D4">
-        <v>-0.01098752553384394</v>
+        <v>0.05190512898970327</v>
       </c>
       <c r="E4">
-        <v>0.04005028080866794</v>
+        <v>-0.01864794337601988</v>
       </c>
       <c r="F4">
-        <v>0.08382536360565804</v>
+        <v>-0.0483104201760336</v>
       </c>
       <c r="G4">
-        <v>0.04336835388102379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04030868980511964</v>
+      </c>
+      <c r="H4">
+        <v>0.05678642756603175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02916418757837902</v>
+        <v>-0.03201305479800484</v>
       </c>
       <c r="C6">
-        <v>0.01254358475866273</v>
+        <v>-0.002620523814970339</v>
       </c>
       <c r="D6">
-        <v>0.002852210009625334</v>
+        <v>0.05655410683030022</v>
       </c>
       <c r="E6">
-        <v>0.01911225310934828</v>
+        <v>-0.004673118833777158</v>
       </c>
       <c r="F6">
-        <v>0.0133813634249852</v>
+        <v>-0.03117110331258929</v>
       </c>
       <c r="G6">
-        <v>-0.01130659352262317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01180760523311283</v>
+      </c>
+      <c r="H6">
+        <v>0.06151471190246464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01916055477033338</v>
+        <v>-0.02380401538446487</v>
       </c>
       <c r="C7">
-        <v>0.00926052238243409</v>
+        <v>0.0001257789510201304</v>
       </c>
       <c r="D7">
-        <v>0.01168114380630356</v>
+        <v>0.02853981316137084</v>
       </c>
       <c r="E7">
-        <v>0.02003902903729247</v>
+        <v>-0.0419050901217213</v>
       </c>
       <c r="F7">
-        <v>0.05075373032559782</v>
+        <v>-0.004449647898406428</v>
       </c>
       <c r="G7">
-        <v>0.06525869481110697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02597417783339648</v>
+      </c>
+      <c r="H7">
+        <v>0.03749292233518279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01639117920177855</v>
+        <v>-0.007441218452984939</v>
       </c>
       <c r="C8">
-        <v>0.01557963868982208</v>
+        <v>-0.002820419656379834</v>
       </c>
       <c r="D8">
-        <v>0.003755558850159469</v>
+        <v>0.01117972630566779</v>
       </c>
       <c r="E8">
-        <v>0.026419631032479</v>
+        <v>-0.005840304234884447</v>
       </c>
       <c r="F8">
-        <v>0.1011143613587633</v>
+        <v>-0.01927247561710332</v>
       </c>
       <c r="G8">
-        <v>0.05581381736075451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04048255240601978</v>
+      </c>
+      <c r="H8">
+        <v>0.04132771441334719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03361049811482082</v>
+        <v>-0.03935861542398476</v>
       </c>
       <c r="C9">
-        <v>0.01438983647590346</v>
+        <v>-0.001961571504997804</v>
       </c>
       <c r="D9">
-        <v>-0.002324031026433675</v>
+        <v>0.03773028211514158</v>
       </c>
       <c r="E9">
-        <v>0.02886660056200764</v>
+        <v>-0.007251498777983385</v>
       </c>
       <c r="F9">
-        <v>0.09615398049767666</v>
+        <v>-0.02476311353506283</v>
       </c>
       <c r="G9">
-        <v>0.04957251828326206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04799584693070647</v>
+      </c>
+      <c r="H9">
+        <v>0.05479858505254322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03655243140664495</v>
+        <v>-0.08940285341952099</v>
       </c>
       <c r="C10">
-        <v>-0.08389490615598014</v>
+        <v>0.003389464778647729</v>
       </c>
       <c r="D10">
-        <v>-0.06763385816237631</v>
+        <v>-0.1744824690969667</v>
       </c>
       <c r="E10">
-        <v>-0.1218988392321879</v>
+        <v>0.003376548700678976</v>
       </c>
       <c r="F10">
-        <v>0.04712035621824713</v>
+        <v>0.03464676475369201</v>
       </c>
       <c r="G10">
-        <v>0.003068681113734238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02765436997022304</v>
+      </c>
+      <c r="H10">
+        <v>0.003429803388783782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03144474563375387</v>
+        <v>-0.02678286361505899</v>
       </c>
       <c r="C11">
-        <v>0.030473441109971</v>
+        <v>-0.01353707780074218</v>
       </c>
       <c r="D11">
-        <v>0.01248804544510628</v>
+        <v>0.04332044609647644</v>
       </c>
       <c r="E11">
-        <v>0.02070397159353858</v>
+        <v>0.001869992689963558</v>
       </c>
       <c r="F11">
-        <v>0.04447635802335644</v>
+        <v>-0.01196878390888016</v>
       </c>
       <c r="G11">
-        <v>0.02263769265945103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02655544763652869</v>
+      </c>
+      <c r="H11">
+        <v>0.04901099293303331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03887004098821385</v>
+        <v>-0.03088497098612147</v>
       </c>
       <c r="C12">
-        <v>0.02850387960248453</v>
+        <v>-0.009949284947354338</v>
       </c>
       <c r="D12">
-        <v>0.00412948271009253</v>
+        <v>0.04226132567174652</v>
       </c>
       <c r="E12">
-        <v>0.03109215751531355</v>
+        <v>-0.008571771792849172</v>
       </c>
       <c r="F12">
-        <v>0.02657358810873995</v>
+        <v>-0.01552503829281353</v>
       </c>
       <c r="G12">
-        <v>0.01018189098251502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008598770501395884</v>
+      </c>
+      <c r="H12">
+        <v>0.0219326824934076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01432479482585105</v>
+        <v>-0.03059900365326366</v>
       </c>
       <c r="C13">
-        <v>0.02337369307301016</v>
+        <v>0.01234260816611566</v>
       </c>
       <c r="D13">
-        <v>-0.008228328017975748</v>
+        <v>0.01370336068086694</v>
       </c>
       <c r="E13">
-        <v>-0.01046622300279701</v>
+        <v>0.01331138883631484</v>
       </c>
       <c r="F13">
-        <v>0.08349409457215953</v>
+        <v>-0.02343498134763364</v>
       </c>
       <c r="G13">
-        <v>0.0463240097516382</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06069354551527442</v>
+      </c>
+      <c r="H13">
+        <v>0.07381041730808849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01467032954133676</v>
+        <v>-0.01929152624128413</v>
       </c>
       <c r="C14">
-        <v>0.002853523350865476</v>
+        <v>-6.172733124311233e-05</v>
       </c>
       <c r="D14">
-        <v>-0.0033573807374666</v>
+        <v>0.009923910829239295</v>
       </c>
       <c r="E14">
-        <v>0.02537991218395381</v>
+        <v>-0.01232093741616802</v>
       </c>
       <c r="F14">
-        <v>0.06393185547441733</v>
+        <v>-0.01603568902783328</v>
       </c>
       <c r="G14">
-        <v>0.05399896258099863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04037072409167011</v>
+      </c>
+      <c r="H14">
+        <v>0.01196234276735961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02743022981331473</v>
+        <v>-0.02703072806473877</v>
       </c>
       <c r="C16">
-        <v>0.03182498753037249</v>
+        <v>-0.01258108729495871</v>
       </c>
       <c r="D16">
-        <v>0.005022009203381433</v>
+        <v>0.03517824612955618</v>
       </c>
       <c r="E16">
-        <v>0.01781307793056632</v>
+        <v>-0.002115849850522302</v>
       </c>
       <c r="F16">
-        <v>0.04759897708834945</v>
+        <v>-0.0162148859461579</v>
       </c>
       <c r="G16">
-        <v>0.02281583608002306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02353237882829998</v>
+      </c>
+      <c r="H16">
+        <v>0.03669475820101711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03277935756048212</v>
+        <v>-0.0360155044719608</v>
       </c>
       <c r="C19">
-        <v>0.02822644471637212</v>
+        <v>-0.001743234620542554</v>
       </c>
       <c r="D19">
-        <v>0.007204116282052769</v>
+        <v>0.02889270915637739</v>
       </c>
       <c r="E19">
-        <v>0.01174898143590431</v>
+        <v>-0.004317242451340369</v>
       </c>
       <c r="F19">
-        <v>0.09951564860139059</v>
+        <v>-0.02627855971360885</v>
       </c>
       <c r="G19">
-        <v>0.06163856228502423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05612424574971751</v>
+      </c>
+      <c r="H19">
+        <v>0.06068231374323326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002157009631591086</v>
+        <v>-0.01364744640421437</v>
       </c>
       <c r="C20">
-        <v>0.007536120032201355</v>
+        <v>0.003791451454129969</v>
       </c>
       <c r="D20">
-        <v>-0.003648198172164065</v>
+        <v>0.01765819045310574</v>
       </c>
       <c r="E20">
-        <v>0.01515542157945294</v>
+        <v>-0.003628371084658365</v>
       </c>
       <c r="F20">
-        <v>0.07685277121286378</v>
+        <v>-0.01674798382185735</v>
       </c>
       <c r="G20">
-        <v>0.07483032457509819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05224222386826984</v>
+      </c>
+      <c r="H20">
+        <v>0.0268350689087264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002472027748087306</v>
+        <v>-0.01838666842260463</v>
       </c>
       <c r="C21">
-        <v>-0.01194563701586841</v>
+        <v>0.005401168332834408</v>
       </c>
       <c r="D21">
-        <v>0.01697289189078934</v>
+        <v>0.01820560674041587</v>
       </c>
       <c r="E21">
-        <v>0.03037671320114548</v>
+        <v>-0.01770552180811451</v>
       </c>
       <c r="F21">
-        <v>0.0475546722116921</v>
+        <v>-0.01202886137476828</v>
       </c>
       <c r="G21">
-        <v>0.02119697790340591</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04910714706214693</v>
+      </c>
+      <c r="H21">
+        <v>0.04047446362103534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02844314031362954</v>
+        <v>-0.02336377180731513</v>
       </c>
       <c r="C24">
-        <v>0.02644843518800634</v>
+        <v>-0.007273444773693991</v>
       </c>
       <c r="D24">
-        <v>-0.003189711007116484</v>
+        <v>0.03821165532612061</v>
       </c>
       <c r="E24">
-        <v>0.006268457750569078</v>
+        <v>-0.0005282727608426731</v>
       </c>
       <c r="F24">
-        <v>0.04281940414328353</v>
+        <v>-0.01151560493625524</v>
       </c>
       <c r="G24">
-        <v>0.0205845451713046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01783508551927017</v>
+      </c>
+      <c r="H24">
+        <v>0.04573751572072658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0292120114981071</v>
+        <v>-0.0352479448169738</v>
       </c>
       <c r="C25">
-        <v>0.02079095790626381</v>
+        <v>-0.005204807393015195</v>
       </c>
       <c r="D25">
-        <v>0.01162396626310712</v>
+        <v>0.03830334097717435</v>
       </c>
       <c r="E25">
-        <v>0.02086219052545433</v>
+        <v>-0.005488439241004962</v>
       </c>
       <c r="F25">
-        <v>0.05197830539179172</v>
+        <v>-0.0195381398221196</v>
       </c>
       <c r="G25">
-        <v>0.01216903541550947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02144189902797958</v>
+      </c>
+      <c r="H25">
+        <v>0.0422769069799058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02072945488779846</v>
+        <v>-0.0178207944431903</v>
       </c>
       <c r="C26">
-        <v>0.0180084354336478</v>
+        <v>0.01790712186927234</v>
       </c>
       <c r="D26">
-        <v>0.01843450837440042</v>
+        <v>0.00824747689498884</v>
       </c>
       <c r="E26">
-        <v>-0.005816438225572701</v>
+        <v>0.0005678915300782964</v>
       </c>
       <c r="F26">
-        <v>0.06332911367522059</v>
+        <v>-0.001972800764821491</v>
       </c>
       <c r="G26">
-        <v>0.04385947059583995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02958497339492467</v>
+      </c>
+      <c r="H26">
+        <v>0.02361101652008868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05189055399929518</v>
+        <v>-0.02179041667485984</v>
       </c>
       <c r="C27">
-        <v>0.02049117172122226</v>
+        <v>-0.008043357142373562</v>
       </c>
       <c r="D27">
-        <v>-0.02847313242500149</v>
+        <v>0.01079672739235206</v>
       </c>
       <c r="E27">
-        <v>0.03121678592330997</v>
+        <v>-0.002808171314274846</v>
       </c>
       <c r="F27">
-        <v>0.04471883844549014</v>
+        <v>-0.01299337741277778</v>
       </c>
       <c r="G27">
-        <v>0.05205046544545305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01016279437042275</v>
+      </c>
+      <c r="H27">
+        <v>-0.004786839621068285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06225424183913558</v>
+        <v>-0.135071484768499</v>
       </c>
       <c r="C28">
-        <v>-0.1135949664918137</v>
+        <v>0.01375458099622334</v>
       </c>
       <c r="D28">
-        <v>-0.09696381354541209</v>
+        <v>-0.2315124258609045</v>
       </c>
       <c r="E28">
-        <v>-0.1499884742436235</v>
+        <v>-0.004832062543314735</v>
       </c>
       <c r="F28">
-        <v>0.05019127294247706</v>
+        <v>0.02907815749427157</v>
       </c>
       <c r="G28">
-        <v>0.003634480821822448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01447394295865474</v>
+      </c>
+      <c r="H28">
+        <v>-0.006467989534157128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01965612492410906</v>
+        <v>-0.02383002030297916</v>
       </c>
       <c r="C29">
-        <v>0.003693878378920975</v>
+        <v>-0.00174700624614619</v>
       </c>
       <c r="D29">
-        <v>-0.004189126054429848</v>
+        <v>0.01020767206607637</v>
       </c>
       <c r="E29">
-        <v>0.03302534553449988</v>
+        <v>-0.01287152245485024</v>
       </c>
       <c r="F29">
-        <v>0.06244320063732251</v>
+        <v>-0.01739574900401056</v>
       </c>
       <c r="G29">
-        <v>0.04343047778172618</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03942606517365078</v>
+      </c>
+      <c r="H29">
+        <v>0.003571218917425231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0812473831115606</v>
+        <v>-0.0608871884469067</v>
       </c>
       <c r="C30">
-        <v>0.06045808494531749</v>
+        <v>-0.003885072408780208</v>
       </c>
       <c r="D30">
-        <v>-0.01009976191187795</v>
+        <v>0.08261357814660605</v>
       </c>
       <c r="E30">
-        <v>0.0455663515468535</v>
+        <v>0.03223534176582605</v>
       </c>
       <c r="F30">
-        <v>0.1027962578064702</v>
+        <v>-0.04984197308796338</v>
       </c>
       <c r="G30">
-        <v>0.06416383101205524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0594902932655902</v>
+      </c>
+      <c r="H30">
+        <v>0.07762533157613885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05921867522292352</v>
+        <v>-0.05267429610810867</v>
       </c>
       <c r="C31">
-        <v>0.03315516614541498</v>
+        <v>-0.01188899465348067</v>
       </c>
       <c r="D31">
-        <v>0.002620598078293368</v>
+        <v>0.01786551214488831</v>
       </c>
       <c r="E31">
-        <v>0.003917404766208998</v>
+        <v>0.005264888059343218</v>
       </c>
       <c r="F31">
-        <v>0.04963787364056946</v>
+        <v>-0.004777828893861595</v>
       </c>
       <c r="G31">
-        <v>0.04893627212676472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01740015010886119</v>
+      </c>
+      <c r="H31">
+        <v>0.002973637215376669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01713484418990992</v>
+        <v>-0.01224758882133783</v>
       </c>
       <c r="C32">
-        <v>0.01571360041840778</v>
+        <v>-0.01390494525198003</v>
       </c>
       <c r="D32">
-        <v>0.006689088277079505</v>
+        <v>0.007879632310260534</v>
       </c>
       <c r="E32">
-        <v>0.05838725084761379</v>
+        <v>-0.02919388456797644</v>
       </c>
       <c r="F32">
-        <v>0.07717402616369061</v>
+        <v>-0.03972757242102017</v>
       </c>
       <c r="G32">
-        <v>0.0435832473163882</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.0293853683210926</v>
+      </c>
+      <c r="H32">
+        <v>0.05718431488962108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04149690904707804</v>
+        <v>-0.03897800290397607</v>
       </c>
       <c r="C33">
-        <v>0.03969634416552897</v>
+        <v>-0.002578185698496268</v>
       </c>
       <c r="D33">
-        <v>0.02906382655238288</v>
+        <v>0.03240824120661175</v>
       </c>
       <c r="E33">
-        <v>0.01297266387458254</v>
+        <v>0.02209778494350467</v>
       </c>
       <c r="F33">
-        <v>0.08321111984978793</v>
+        <v>-0.0006293416787729266</v>
       </c>
       <c r="G33">
-        <v>0.06059735582113494</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04601426599277368</v>
+      </c>
+      <c r="H33">
+        <v>0.04793210208324153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02744303612155446</v>
+        <v>-0.0317398066822535</v>
       </c>
       <c r="C34">
-        <v>0.02662657078783637</v>
+        <v>-0.02089971560971443</v>
       </c>
       <c r="D34">
-        <v>0.005814651508834314</v>
+        <v>0.03603421238261936</v>
       </c>
       <c r="E34">
-        <v>0.02510651865855323</v>
+        <v>-0.01212588250882021</v>
       </c>
       <c r="F34">
-        <v>0.05492367959369777</v>
+        <v>-0.01808783277417008</v>
       </c>
       <c r="G34">
-        <v>0.01714421713071094</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01526775589832596</v>
+      </c>
+      <c r="H34">
+        <v>0.03580912503550845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01462748648508544</v>
+        <v>-0.01863223554313487</v>
       </c>
       <c r="C36">
-        <v>0.002338146241936942</v>
+        <v>0.005868636245860665</v>
       </c>
       <c r="D36">
-        <v>0.002930069949130047</v>
+        <v>0.001800937879010274</v>
       </c>
       <c r="E36">
-        <v>0.01909400147830056</v>
+        <v>-0.007421879303474364</v>
       </c>
       <c r="F36">
-        <v>0.03959524818981852</v>
+        <v>-0.00308816311574128</v>
       </c>
       <c r="G36">
-        <v>0.0334027386607777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02169448032101222</v>
+      </c>
+      <c r="H36">
+        <v>0.0155054435814431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002199300283545001</v>
+        <v>-0.02834519352904209</v>
       </c>
       <c r="C38">
-        <v>-0.004632831256128622</v>
+        <v>-0.01666058568753968</v>
       </c>
       <c r="D38">
-        <v>0.01485029701582995</v>
+        <v>0.007103634540650693</v>
       </c>
       <c r="E38">
-        <v>-0.030430806982183</v>
+        <v>0.0006648672583772161</v>
       </c>
       <c r="F38">
-        <v>0.03719342025901699</v>
+        <v>-0.01061722551290342</v>
       </c>
       <c r="G38">
-        <v>0.01469480397886118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02342673548851142</v>
+      </c>
+      <c r="H38">
+        <v>0.04441131379231906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02862892670726329</v>
+        <v>-0.02600563667223309</v>
       </c>
       <c r="C39">
-        <v>0.04862599453154143</v>
+        <v>-0.01161182443448031</v>
       </c>
       <c r="D39">
-        <v>0.01017362378363951</v>
+        <v>0.08325638192803092</v>
       </c>
       <c r="E39">
-        <v>0.02179722716807125</v>
+        <v>0.006829197652160056</v>
       </c>
       <c r="F39">
-        <v>0.06470355291890809</v>
+        <v>-0.01964890766265736</v>
       </c>
       <c r="G39">
-        <v>0.02973785148706505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04209112906367094</v>
+      </c>
+      <c r="H39">
+        <v>0.07737862289505977</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03051733570172505</v>
+        <v>-0.03365077972958742</v>
       </c>
       <c r="C40">
-        <v>0.07056198116746143</v>
+        <v>-0.002824187760579097</v>
       </c>
       <c r="D40">
-        <v>-0.02459010931245964</v>
+        <v>0.02583878840405131</v>
       </c>
       <c r="E40">
-        <v>-0.0162696373813567</v>
+        <v>0.02535991368832306</v>
       </c>
       <c r="F40">
-        <v>0.07989605050598902</v>
+        <v>-0.03529356203614079</v>
       </c>
       <c r="G40">
-        <v>0.05127667272727023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0213018090945746</v>
+      </c>
+      <c r="H40">
+        <v>0.06475451316226739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001357042585475376</v>
+        <v>-0.009548186280612611</v>
       </c>
       <c r="C41">
-        <v>-0.0006210936349662399</v>
+        <v>0.003642065564979916</v>
       </c>
       <c r="D41">
-        <v>0.006839149859022826</v>
+        <v>-0.01557405599144178</v>
       </c>
       <c r="E41">
-        <v>-1.667233381720671e-05</v>
+        <v>0.000672775211188523</v>
       </c>
       <c r="F41">
-        <v>0.02003033906339624</v>
+        <v>0.002522915336272826</v>
       </c>
       <c r="G41">
-        <v>0.05097307667572008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001985598274000733</v>
+      </c>
+      <c r="H41">
+        <v>-0.006198619141881399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3573635162446537</v>
+        <v>-0.1872080335081024</v>
       </c>
       <c r="C42">
-        <v>-0.08332151828902759</v>
+        <v>0.05768265586240686</v>
       </c>
       <c r="D42">
-        <v>0.7701598914948322</v>
+        <v>0.2360769753266156</v>
       </c>
       <c r="E42">
-        <v>-0.3604836761079961</v>
+        <v>0.2096755270586574</v>
       </c>
       <c r="F42">
-        <v>-0.2819260145748708</v>
+        <v>0.9028538807951162</v>
       </c>
       <c r="G42">
-        <v>0.1598730688814633</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1663439090911124</v>
+      </c>
+      <c r="H42">
+        <v>0.008836049129921794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0002680919270721777</v>
+        <v>-0.01370184734512878</v>
       </c>
       <c r="C43">
-        <v>-0.0009617890343446276</v>
+        <v>0.003597959917671369</v>
       </c>
       <c r="D43">
-        <v>0.01058301263109646</v>
+        <v>-0.01551104726137675</v>
       </c>
       <c r="E43">
-        <v>-0.0004062522096831364</v>
+        <v>0.003754721567668351</v>
       </c>
       <c r="F43">
-        <v>0.03640041799481861</v>
+        <v>0.004529243388960794</v>
       </c>
       <c r="G43">
-        <v>0.04763235132808909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002252840140498009</v>
+      </c>
+      <c r="H43">
+        <v>0.008137963068998498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01581844355192909</v>
+        <v>-0.02345790498550257</v>
       </c>
       <c r="C44">
-        <v>0.003970434362641442</v>
+        <v>-0.006833659090007284</v>
       </c>
       <c r="D44">
-        <v>0.005297854759449826</v>
+        <v>0.02873678207040078</v>
       </c>
       <c r="E44">
-        <v>-0.01155049602746529</v>
+        <v>-0.006147344557945929</v>
       </c>
       <c r="F44">
-        <v>0.1106623849291005</v>
+        <v>-0.003566407705183003</v>
       </c>
       <c r="G44">
-        <v>0.08632411690179936</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04232384653875577</v>
+      </c>
+      <c r="H44">
+        <v>0.06377323815228321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01989915605575594</v>
+        <v>-0.01691043532174356</v>
       </c>
       <c r="C46">
-        <v>0.02253524743017236</v>
+        <v>0.004196398070003206</v>
       </c>
       <c r="D46">
-        <v>0.01489536767996896</v>
+        <v>0.01165634600042153</v>
       </c>
       <c r="E46">
-        <v>0.02950476641523495</v>
+        <v>0.001530362283228089</v>
       </c>
       <c r="F46">
-        <v>0.07632791595478368</v>
+        <v>-0.0120974760849516</v>
       </c>
       <c r="G46">
-        <v>0.06015441407029466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04460858983890206</v>
+      </c>
+      <c r="H46">
+        <v>0.006693908066315476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09173504428752698</v>
+        <v>-0.07746994103738682</v>
       </c>
       <c r="C47">
-        <v>0.03593234682362351</v>
+        <v>-0.02971318287391818</v>
       </c>
       <c r="D47">
-        <v>-0.007639012835891434</v>
+        <v>0.04055299205740999</v>
       </c>
       <c r="E47">
-        <v>0.02372111799020572</v>
+        <v>-0.001516131827808792</v>
       </c>
       <c r="F47">
-        <v>0.03960045756247055</v>
+        <v>-0.01450845644008777</v>
       </c>
       <c r="G47">
-        <v>0.07988902159113895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009246197429311237</v>
+      </c>
+      <c r="H47">
+        <v>-0.02355150185744526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01860796336592369</v>
+        <v>-0.02207106575010013</v>
       </c>
       <c r="C48">
-        <v>0.01178386646409966</v>
+        <v>-0.005929281829767367</v>
       </c>
       <c r="D48">
-        <v>0.007153031102379126</v>
+        <v>0.008159220165310722</v>
       </c>
       <c r="E48">
-        <v>0.0180970491403085</v>
+        <v>7.494171756512898e-06</v>
       </c>
       <c r="F48">
-        <v>0.04362670742998496</v>
+        <v>-0.008275418264869</v>
       </c>
       <c r="G48">
-        <v>0.02415322605543562</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02319666151767521</v>
+      </c>
+      <c r="H48">
+        <v>0.01756609639349946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0849455921271612</v>
+        <v>-0.07499208237506827</v>
       </c>
       <c r="C50">
-        <v>0.03442100118942443</v>
+        <v>-0.02659613159807227</v>
       </c>
       <c r="D50">
-        <v>0.009266089269136501</v>
+        <v>0.03878723077211478</v>
       </c>
       <c r="E50">
-        <v>0.02614574229204411</v>
+        <v>-0.01435333720893204</v>
       </c>
       <c r="F50">
-        <v>0.05135231254991419</v>
+        <v>-0.009109228655871984</v>
       </c>
       <c r="G50">
-        <v>0.03985439692566486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.00755332708915321</v>
+      </c>
+      <c r="H50">
+        <v>-0.006552157262500771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01642056639037355</v>
+        <v>-0.02262895166546606</v>
       </c>
       <c r="C51">
-        <v>-0.004924405202065552</v>
+        <v>0.0004401997474420658</v>
       </c>
       <c r="D51">
-        <v>-0.006881384382867768</v>
+        <v>0.001755854910443458</v>
       </c>
       <c r="E51">
-        <v>-0.01940167799035761</v>
+        <v>-0.005366531305058588</v>
       </c>
       <c r="F51">
-        <v>0.09631314080764293</v>
+        <v>-0.005040384858896601</v>
       </c>
       <c r="G51">
-        <v>0.06276278063101993</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03669895298291775</v>
+      </c>
+      <c r="H51">
+        <v>0.04908697698981505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09995370754284474</v>
+        <v>-0.09603077330264248</v>
       </c>
       <c r="C53">
-        <v>0.04472639519422782</v>
+        <v>-0.03872256073737226</v>
       </c>
       <c r="D53">
-        <v>-0.005477010840036325</v>
+        <v>0.07324219998934411</v>
       </c>
       <c r="E53">
-        <v>0.04632354173868635</v>
+        <v>-0.004840971784693872</v>
       </c>
       <c r="F53">
-        <v>-0.0204365446153261</v>
+        <v>-0.02887019472445717</v>
       </c>
       <c r="G53">
-        <v>0.01811099172706273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03658434505092333</v>
+      </c>
+      <c r="H53">
+        <v>-0.03576759897263374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01651757939121859</v>
+        <v>-0.02416543861425744</v>
       </c>
       <c r="C54">
-        <v>-0.00061719926979742</v>
+        <v>-0.007618197829464371</v>
       </c>
       <c r="D54">
-        <v>-0.006132447140722704</v>
+        <v>-0.01201627453401398</v>
       </c>
       <c r="E54">
-        <v>0.02907373996281536</v>
+        <v>-0.006459792548884866</v>
       </c>
       <c r="F54">
-        <v>0.05794702013524902</v>
+        <v>-0.008359628682701467</v>
       </c>
       <c r="G54">
-        <v>0.04989065700952133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.04131892599726556</v>
+      </c>
+      <c r="H54">
+        <v>-0.001171616884365591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1005925851162685</v>
+        <v>-0.08102500568745043</v>
       </c>
       <c r="C55">
-        <v>0.02590571223684323</v>
+        <v>-0.0349985498117843</v>
       </c>
       <c r="D55">
-        <v>0.0003094880816034841</v>
+        <v>0.07032330327648136</v>
       </c>
       <c r="E55">
-        <v>0.06364283441065406</v>
+        <v>-0.0134645370834827</v>
       </c>
       <c r="F55">
-        <v>-0.01161118276516902</v>
+        <v>-0.0210274439951652</v>
       </c>
       <c r="G55">
-        <v>0.05068970538642385</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01450193051181974</v>
+      </c>
+      <c r="H55">
+        <v>-0.04548202668085233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1415996771879135</v>
+        <v>-0.1315368638254459</v>
       </c>
       <c r="C56">
-        <v>0.06206339627896288</v>
+        <v>-0.05733389244037898</v>
       </c>
       <c r="D56">
-        <v>-0.04303395220054571</v>
+        <v>0.08841634094352659</v>
       </c>
       <c r="E56">
-        <v>0.07508012403864951</v>
+        <v>-0.006367308579706585</v>
       </c>
       <c r="F56">
-        <v>-0.05615111143961075</v>
+        <v>-0.05234192899360957</v>
       </c>
       <c r="G56">
-        <v>-0.0252888845542374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07236207059569576</v>
+      </c>
+      <c r="H56">
+        <v>-0.06041116280620388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04388011923225614</v>
+        <v>-0.04010929793088804</v>
       </c>
       <c r="C57">
-        <v>0.01689139442903908</v>
+        <v>0.01061719505334185</v>
       </c>
       <c r="D57">
-        <v>0.01108247476403162</v>
+        <v>0.02771537846088653</v>
       </c>
       <c r="E57">
-        <v>-0.02058661001660012</v>
+        <v>0.0112816868008727</v>
       </c>
       <c r="F57">
-        <v>0.04817287711203725</v>
+        <v>-0.007420897882358501</v>
       </c>
       <c r="G57">
-        <v>0.0505607889974283</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07254794086416036</v>
+      </c>
+      <c r="H57">
+        <v>0.04754210629093904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2073638567372458</v>
+        <v>-0.1534407832724274</v>
       </c>
       <c r="C58">
-        <v>0.1463141967923496</v>
+        <v>-0.05024148944922636</v>
       </c>
       <c r="D58">
-        <v>0.06676661611520827</v>
+        <v>0.1287184919356991</v>
       </c>
       <c r="E58">
-        <v>0.04696932940655849</v>
+        <v>0.2221713632762482</v>
       </c>
       <c r="F58">
-        <v>0.4135626415505351</v>
+        <v>0.0476875721200499</v>
       </c>
       <c r="G58">
-        <v>0.03045851420250885</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.814337964766359</v>
+      </c>
+      <c r="H58">
+        <v>-0.3920218385066433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05637783065579024</v>
+        <v>-0.1487672348208838</v>
       </c>
       <c r="C59">
-        <v>-0.06497144257833026</v>
+        <v>0.004959001739737663</v>
       </c>
       <c r="D59">
-        <v>-0.1092562723013767</v>
+        <v>-0.2327529294110799</v>
       </c>
       <c r="E59">
-        <v>-0.1456763935751415</v>
+        <v>0.01412802294541165</v>
       </c>
       <c r="F59">
-        <v>0.05601796012438471</v>
+        <v>0.003638786782028967</v>
       </c>
       <c r="G59">
-        <v>-0.02444671429829554</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01404544536244084</v>
+      </c>
+      <c r="H59">
+        <v>0.02841369547735793</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1544970273780505</v>
+        <v>-0.1895151196674085</v>
       </c>
       <c r="C60">
-        <v>0.09110811045735004</v>
+        <v>-0.02881003880803585</v>
       </c>
       <c r="D60">
-        <v>0.007493874533698356</v>
+        <v>0.0149591036125346</v>
       </c>
       <c r="E60">
-        <v>-0.1134502857316281</v>
+        <v>0.05172114471079916</v>
       </c>
       <c r="F60">
-        <v>0.1498519333671009</v>
+        <v>-0.05738280792147811</v>
       </c>
       <c r="G60">
-        <v>-0.3132891465037426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02669467183862198</v>
+      </c>
+      <c r="H60">
+        <v>0.3731809612851711</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02128934549497368</v>
+        <v>-0.02800250274662737</v>
       </c>
       <c r="C61">
-        <v>0.0262835916236187</v>
+        <v>-0.01274396694263129</v>
       </c>
       <c r="D61">
-        <v>0.01062343281286607</v>
+        <v>0.04971617110861933</v>
       </c>
       <c r="E61">
-        <v>0.01694174943320326</v>
+        <v>-0.002219076356228033</v>
       </c>
       <c r="F61">
-        <v>0.03065120144933504</v>
+        <v>-0.02151082115904085</v>
       </c>
       <c r="G61">
-        <v>0.01656381835076076</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02617507181544763</v>
+      </c>
+      <c r="H61">
+        <v>0.0574691832590981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009573839012269981</v>
+        <v>-0.01469318387473276</v>
       </c>
       <c r="C63">
-        <v>0.01818762725800863</v>
+        <v>0.0005576984891751475</v>
       </c>
       <c r="D63">
-        <v>0.01737611166393247</v>
+        <v>0.0195513648545811</v>
       </c>
       <c r="E63">
-        <v>0.02151105055069967</v>
+        <v>-0.004605621655181703</v>
       </c>
       <c r="F63">
-        <v>0.01814124408523397</v>
+        <v>-0.0111382599679953</v>
       </c>
       <c r="G63">
-        <v>0.0735192461182672</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01734039186492444</v>
+      </c>
+      <c r="H63">
+        <v>0.01172044189170345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03650621520535887</v>
+        <v>-0.044232297267461</v>
       </c>
       <c r="C64">
-        <v>0.002416445139728959</v>
+        <v>-0.01191142122819832</v>
       </c>
       <c r="D64">
-        <v>-0.001638239556000566</v>
+        <v>0.03354794029667893</v>
       </c>
       <c r="E64">
-        <v>0.05082491767726771</v>
+        <v>-0.01121138391206454</v>
       </c>
       <c r="F64">
-        <v>0.04529187827446801</v>
+        <v>-0.005159751162121858</v>
       </c>
       <c r="G64">
-        <v>0.05523786165778798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.006036631615663623</v>
+      </c>
+      <c r="H64">
+        <v>0.0411304824188342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03224016239888328</v>
+        <v>-0.04386121974542818</v>
       </c>
       <c r="C65">
-        <v>0.01444533290353708</v>
+        <v>-0.0056084588285479</v>
       </c>
       <c r="D65">
-        <v>0.003120476172866857</v>
+        <v>0.06867800418520556</v>
       </c>
       <c r="E65">
-        <v>0.02120747821536045</v>
+        <v>-0.008376411249913411</v>
       </c>
       <c r="F65">
-        <v>0.008427584486838002</v>
+        <v>-0.03932204316489869</v>
       </c>
       <c r="G65">
-        <v>-0.01749926319847476</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002230252476303978</v>
+      </c>
+      <c r="H65">
+        <v>0.0729562303572418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03301861407016898</v>
+        <v>-0.03718804831082199</v>
       </c>
       <c r="C66">
-        <v>0.06143344025062534</v>
+        <v>-0.01971016708382536</v>
       </c>
       <c r="D66">
-        <v>0.0091681179027334</v>
+        <v>0.1021398491695202</v>
       </c>
       <c r="E66">
-        <v>0.03336410712718902</v>
+        <v>0.00874370676763238</v>
       </c>
       <c r="F66">
-        <v>0.04828460245834865</v>
+        <v>-0.04003247158263498</v>
       </c>
       <c r="G66">
-        <v>0.01468709468672672</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03891113568556281</v>
+      </c>
+      <c r="H66">
+        <v>0.0818140767750844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01151737983353884</v>
+        <v>-0.04814044886832926</v>
       </c>
       <c r="C67">
-        <v>0.0009678740149407465</v>
+        <v>-0.01849047033765637</v>
       </c>
       <c r="D67">
-        <v>0.007340680414426316</v>
+        <v>0.006630599174328541</v>
       </c>
       <c r="E67">
-        <v>-0.03392581109381114</v>
+        <v>0.003558047713869633</v>
       </c>
       <c r="F67">
-        <v>0.01802089408404586</v>
+        <v>-0.0198036123288356</v>
       </c>
       <c r="G67">
-        <v>0.005302331010624647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.011600446953985</v>
+      </c>
+      <c r="H67">
+        <v>0.0450330898786965</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07263932922454462</v>
+        <v>-0.1388361845101964</v>
       </c>
       <c r="C68">
-        <v>-0.09230187098932499</v>
+        <v>0.02952153560186845</v>
       </c>
       <c r="D68">
-        <v>-0.1222105439050821</v>
+        <v>-0.24378399384844</v>
       </c>
       <c r="E68">
-        <v>-0.1453169081369097</v>
+        <v>0.009872032304053653</v>
       </c>
       <c r="F68">
-        <v>0.05274886155133956</v>
+        <v>0.0387844400132554</v>
       </c>
       <c r="G68">
-        <v>-0.06526590765275217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02409488705553623</v>
+      </c>
+      <c r="H68">
+        <v>-0.04825242167695275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06627873398122777</v>
+        <v>-0.06482933763832337</v>
       </c>
       <c r="C69">
-        <v>0.04394112471315013</v>
+        <v>-0.03044510215829324</v>
       </c>
       <c r="D69">
-        <v>-0.01485474726669973</v>
+        <v>0.0398093847906735</v>
       </c>
       <c r="E69">
-        <v>0.01297107948554494</v>
+        <v>-0.0005767228876827707</v>
       </c>
       <c r="F69">
-        <v>0.02165659909642311</v>
+        <v>-0.02630567428649696</v>
       </c>
       <c r="G69">
-        <v>0.07310614475727688</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01411953809921976</v>
+      </c>
+      <c r="H69">
+        <v>0.006312816865492976</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07582710507128375</v>
+        <v>-0.1347174167338248</v>
       </c>
       <c r="C71">
-        <v>-0.09514558084372203</v>
+        <v>0.0156668385502014</v>
       </c>
       <c r="D71">
-        <v>-0.1070626425703329</v>
+        <v>-0.2110848772799577</v>
       </c>
       <c r="E71">
-        <v>-0.201714167039361</v>
+        <v>0.01653248569944858</v>
       </c>
       <c r="F71">
-        <v>0.04584730643667261</v>
+        <v>0.04576579992003551</v>
       </c>
       <c r="G71">
-        <v>0.007068495966222632</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02841990026670136</v>
+      </c>
+      <c r="H71">
+        <v>-0.02121294809712637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1078149740095529</v>
+        <v>-0.08376739983947463</v>
       </c>
       <c r="C72">
-        <v>0.07932600011361993</v>
+        <v>-0.04156249059115037</v>
       </c>
       <c r="D72">
-        <v>-0.04373509898617227</v>
+        <v>0.06718179596111021</v>
       </c>
       <c r="E72">
-        <v>0.03116622059874283</v>
+        <v>0.0165227827546706</v>
       </c>
       <c r="F72">
-        <v>0.08394902484895404</v>
+        <v>-0.073320562864069</v>
       </c>
       <c r="G72">
-        <v>-0.09926807824421074</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02744488420516124</v>
+      </c>
+      <c r="H72">
+        <v>0.1318799871503549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.217958036478334</v>
+        <v>-0.2612591829601937</v>
       </c>
       <c r="C73">
-        <v>0.1241173473423165</v>
+        <v>-0.04483772636094948</v>
       </c>
       <c r="D73">
-        <v>0.01370366678301049</v>
+        <v>0.07086959217039014</v>
       </c>
       <c r="E73">
-        <v>-0.2033642111397625</v>
+        <v>0.09256227473171845</v>
       </c>
       <c r="F73">
-        <v>0.1715004352480345</v>
+        <v>-0.06667088663307912</v>
       </c>
       <c r="G73">
-        <v>-0.4465432927038241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04192477583923447</v>
+      </c>
+      <c r="H73">
+        <v>0.4819232394934446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1353639260977251</v>
+        <v>-0.1263636782084087</v>
       </c>
       <c r="C74">
-        <v>0.03426680414831088</v>
+        <v>-0.05630713861477116</v>
       </c>
       <c r="D74">
-        <v>-0.0118025003559763</v>
+        <v>0.09548864203489463</v>
       </c>
       <c r="E74">
-        <v>0.05125856868130664</v>
+        <v>-0.009535113539384384</v>
       </c>
       <c r="F74">
-        <v>-0.06972200292243581</v>
+        <v>-0.03576385558201683</v>
       </c>
       <c r="G74">
-        <v>0.001058881284439404</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05821303484891294</v>
+      </c>
+      <c r="H74">
+        <v>-0.0266241924373262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2253929160268136</v>
+        <v>-0.2399439758842281</v>
       </c>
       <c r="C75">
-        <v>0.1000548746741153</v>
+        <v>-0.1037173848534708</v>
       </c>
       <c r="D75">
-        <v>-0.09221465294880364</v>
+        <v>0.1414489467784174</v>
       </c>
       <c r="E75">
-        <v>0.1036577025119967</v>
+        <v>0.009042113914466698</v>
       </c>
       <c r="F75">
-        <v>-0.07732786944668678</v>
+        <v>-0.0988824232100981</v>
       </c>
       <c r="G75">
-        <v>0.009557521715280948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1205447570352817</v>
+      </c>
+      <c r="H75">
+        <v>-0.1337852952150299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2765170876965843</v>
+        <v>-0.2078097412075036</v>
       </c>
       <c r="C76">
-        <v>0.09574053245315338</v>
+        <v>-0.09624960575610167</v>
       </c>
       <c r="D76">
-        <v>-0.1189272973932151</v>
+        <v>0.1378950926045434</v>
       </c>
       <c r="E76">
-        <v>0.1582162900737295</v>
+        <v>-0.03857258968121541</v>
       </c>
       <c r="F76">
-        <v>-0.1599248448778448</v>
+        <v>-0.0913781888086151</v>
       </c>
       <c r="G76">
-        <v>-0.009184752228253715</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1189373015335217</v>
+      </c>
+      <c r="H76">
+        <v>-0.1331170253627139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1273457406148357</v>
+        <v>-0.07854401690055998</v>
       </c>
       <c r="C77">
-        <v>0.06725777138821659</v>
+        <v>-0.01581781526538453</v>
       </c>
       <c r="D77">
-        <v>0.07216023567001525</v>
+        <v>0.06604228689981011</v>
       </c>
       <c r="E77">
-        <v>0.0250521439179437</v>
+        <v>0.01580773182495333</v>
       </c>
       <c r="F77">
-        <v>0.192210367084286</v>
+        <v>0.01120880950124466</v>
       </c>
       <c r="G77">
-        <v>0.2282561836779949</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08405766653666893</v>
+      </c>
+      <c r="H77">
+        <v>0.01265771399987112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07390938906386434</v>
+        <v>-0.04741847700801367</v>
       </c>
       <c r="C78">
-        <v>0.0563265484935239</v>
+        <v>-0.01645896851928694</v>
       </c>
       <c r="D78">
-        <v>0.03766320189650051</v>
+        <v>0.05779217207006517</v>
       </c>
       <c r="E78">
-        <v>0.06237372916029019</v>
+        <v>-0.0008663553417408257</v>
       </c>
       <c r="F78">
-        <v>0.1148007970304545</v>
+        <v>-0.02334151009775251</v>
       </c>
       <c r="G78">
-        <v>0.03311470647166222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06534932434812556</v>
+      </c>
+      <c r="H78">
+        <v>0.08456486770264077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.261106529010403</v>
+        <v>-0.1485668371671618</v>
       </c>
       <c r="C80">
-        <v>-0.8162167146836671</v>
+        <v>-0.03754834960850752</v>
       </c>
       <c r="D80">
-        <v>0.08599338478249106</v>
+        <v>0.05901611741454317</v>
       </c>
       <c r="E80">
-        <v>0.4386369453727562</v>
+        <v>-0.9331941188424246</v>
       </c>
       <c r="F80">
-        <v>0.1308902350053575</v>
+        <v>0.2116213535061054</v>
       </c>
       <c r="G80">
-        <v>-0.1349671826254153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1736469989569609</v>
+      </c>
+      <c r="H80">
+        <v>0.004095061460787346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1763313834141531</v>
+        <v>-0.162314566765386</v>
       </c>
       <c r="C81">
-        <v>0.0719382374930197</v>
+        <v>-0.0684672746051144</v>
       </c>
       <c r="D81">
-        <v>-0.08319597145413492</v>
+        <v>0.09066577077062499</v>
       </c>
       <c r="E81">
-        <v>0.09363624131122796</v>
+        <v>-0.009775538078140343</v>
       </c>
       <c r="F81">
-        <v>-0.1013562330861325</v>
+        <v>-0.06627047317720841</v>
       </c>
       <c r="G81">
-        <v>-0.01825685941789137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08420885637246542</v>
+      </c>
+      <c r="H81">
+        <v>-0.08842752916821964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03610971944324374</v>
+        <v>-0.03600880418847025</v>
       </c>
       <c r="C83">
-        <v>0.03284903014900054</v>
+        <v>-0.00718386002351624</v>
       </c>
       <c r="D83">
-        <v>0.01954866139120312</v>
+        <v>0.02098495415451903</v>
       </c>
       <c r="E83">
-        <v>-0.00686151973949443</v>
+        <v>0.008199733239704902</v>
       </c>
       <c r="F83">
-        <v>0.05670174252094132</v>
+        <v>-0.009435392130062437</v>
       </c>
       <c r="G83">
-        <v>0.03597767461964157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04723194842107627</v>
+      </c>
+      <c r="H83">
+        <v>0.04079552267448092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2548582198197955</v>
+        <v>-0.2282374841317284</v>
       </c>
       <c r="C85">
-        <v>0.0988852668469857</v>
+        <v>-0.08832844899213747</v>
       </c>
       <c r="D85">
-        <v>-0.09317444542434322</v>
+        <v>0.1469177201305958</v>
       </c>
       <c r="E85">
-        <v>0.11826296099563</v>
+        <v>0.002998585725996762</v>
       </c>
       <c r="F85">
-        <v>-0.1062531681349117</v>
+        <v>-0.08224475746466464</v>
       </c>
       <c r="G85">
-        <v>0.02628555719996902</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1330004236904008</v>
+      </c>
+      <c r="H85">
+        <v>-0.09482280201829447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003459510685579772</v>
+        <v>-0.03004041696791532</v>
       </c>
       <c r="C86">
-        <v>0.002106667250052774</v>
+        <v>-0.005069445031601258</v>
       </c>
       <c r="D86">
-        <v>0.02678654383741561</v>
+        <v>0.0296611710088404</v>
       </c>
       <c r="E86">
-        <v>0.02527329859084628</v>
+        <v>0.000109630318669956</v>
       </c>
       <c r="F86">
-        <v>0.08061882753714807</v>
+        <v>-0.0002153758403022688</v>
       </c>
       <c r="G86">
-        <v>0.05192106898686406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.055884895385733</v>
+      </c>
+      <c r="H86">
+        <v>0.09310508287179979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04261698753350789</v>
+        <v>-0.03083828122013898</v>
       </c>
       <c r="C87">
-        <v>0.003763720503039232</v>
+        <v>-0.005907252156522416</v>
       </c>
       <c r="D87">
-        <v>0.01777569624427058</v>
+        <v>0.04059634678962758</v>
       </c>
       <c r="E87">
-        <v>0.004959983847105726</v>
+        <v>-0.003725192410531086</v>
       </c>
       <c r="F87">
-        <v>0.1104482539281002</v>
+        <v>-0.007604566694291663</v>
       </c>
       <c r="G87">
-        <v>0.04336736657173609</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08183894055487392</v>
+      </c>
+      <c r="H87">
+        <v>0.07932182824591118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01162796346390148</v>
+        <v>-0.04297067485276473</v>
       </c>
       <c r="C88">
-        <v>-0.01514167593997888</v>
+        <v>0.009054322151466281</v>
       </c>
       <c r="D88">
-        <v>-0.01440021141081156</v>
+        <v>0.01860981389037937</v>
       </c>
       <c r="E88">
-        <v>0.01754619310256232</v>
+        <v>-0.01244273532723934</v>
       </c>
       <c r="F88">
-        <v>0.003929967341361861</v>
+        <v>-0.01911143371369966</v>
       </c>
       <c r="G88">
-        <v>0.0555963367043651</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0007373091326289878</v>
+      </c>
+      <c r="H88">
+        <v>0.01792597738325659</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1049175673342041</v>
+        <v>-0.2311940576643506</v>
       </c>
       <c r="C89">
-        <v>-0.1323444197007525</v>
+        <v>0.02961716698570654</v>
       </c>
       <c r="D89">
-        <v>-0.1835614628881408</v>
+        <v>-0.3691138182398876</v>
       </c>
       <c r="E89">
-        <v>-0.2518270871516783</v>
+        <v>0.02124164419047855</v>
       </c>
       <c r="F89">
-        <v>0.09182236660908544</v>
+        <v>0.02486626769212943</v>
       </c>
       <c r="G89">
-        <v>-0.004809897889690082</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.006244377128763786</v>
+      </c>
+      <c r="H89">
+        <v>0.01233881608771717</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09119103860872392</v>
+        <v>-0.1838534713036719</v>
       </c>
       <c r="C90">
-        <v>-0.1824956871095471</v>
+        <v>0.02764506372522874</v>
       </c>
       <c r="D90">
-        <v>-0.1961188540126461</v>
+        <v>-0.3285853833035339</v>
       </c>
       <c r="E90">
-        <v>-0.2561945894650989</v>
+        <v>0.01326746328327616</v>
       </c>
       <c r="F90">
-        <v>0.03410947195746968</v>
+        <v>0.0525327378428963</v>
       </c>
       <c r="G90">
-        <v>0.02949727048993636</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01577094221837317</v>
+      </c>
+      <c r="H90">
+        <v>-0.05070389258284473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3048798041562463</v>
+        <v>-0.2413233978398813</v>
       </c>
       <c r="C91">
-        <v>0.1268077105967128</v>
+        <v>-0.1000374554834214</v>
       </c>
       <c r="D91">
-        <v>-0.09141866105846019</v>
+        <v>0.1258697181548661</v>
       </c>
       <c r="E91">
-        <v>0.120011516245506</v>
+        <v>0.008818003550663558</v>
       </c>
       <c r="F91">
-        <v>-0.211336662575875</v>
+        <v>-0.08192578449659652</v>
       </c>
       <c r="G91">
-        <v>-0.02348945028822487</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1426264083126714</v>
+      </c>
+      <c r="H91">
+        <v>-0.1672948108878896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1766244334904069</v>
+        <v>-0.2375175416180463</v>
       </c>
       <c r="C92">
-        <v>-0.1376822353042145</v>
+        <v>-0.04125694330391187</v>
       </c>
       <c r="D92">
-        <v>-0.3408820061192547</v>
+        <v>-0.2674830711076429</v>
       </c>
       <c r="E92">
-        <v>-0.2290882759510059</v>
+        <v>0.002453932990405247</v>
       </c>
       <c r="F92">
-        <v>-0.1960691743129309</v>
+        <v>-0.0007793550632408429</v>
       </c>
       <c r="G92">
-        <v>0.4925144189155415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.008602374897229126</v>
+      </c>
+      <c r="H92">
+        <v>-0.1228145218232324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09297724415629359</v>
+        <v>-0.2101245607750468</v>
       </c>
       <c r="C93">
-        <v>-0.1766268081296325</v>
+        <v>0.01852486001868333</v>
       </c>
       <c r="D93">
-        <v>-0.2241933273549584</v>
+        <v>-0.3430410085757216</v>
       </c>
       <c r="E93">
-        <v>-0.3590999164241736</v>
+        <v>0.03437409144382642</v>
       </c>
       <c r="F93">
-        <v>-0.02047154583925974</v>
+        <v>0.0539142070635783</v>
       </c>
       <c r="G93">
-        <v>-0.06082943180347648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01243650534812566</v>
+      </c>
+      <c r="H93">
+        <v>0.01418337183817632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2982083870154643</v>
+        <v>-0.2847423803246797</v>
       </c>
       <c r="C94">
-        <v>0.1531554802137138</v>
+        <v>-0.09582020402921328</v>
       </c>
       <c r="D94">
-        <v>-0.1823017310895828</v>
+        <v>0.1313645628691781</v>
       </c>
       <c r="E94">
-        <v>0.1396170064061967</v>
+        <v>0.02809250717908742</v>
       </c>
       <c r="F94">
-        <v>-0.1655166111230622</v>
+        <v>-0.1751200058810227</v>
       </c>
       <c r="G94">
-        <v>-0.04002742007039939</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2396662561348776</v>
+      </c>
+      <c r="H94">
+        <v>-0.2878819942461615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.05248856195356005</v>
+        <v>-0.06093285832349789</v>
       </c>
       <c r="C95">
-        <v>0.0542862423387101</v>
+        <v>-0.03670411477625835</v>
       </c>
       <c r="D95">
-        <v>0.04201693799474104</v>
+        <v>0.07934812760644844</v>
       </c>
       <c r="E95">
-        <v>0.05221614837065879</v>
+        <v>0.08229091040795049</v>
       </c>
       <c r="F95">
-        <v>0.07494350192312453</v>
+        <v>0.002079112312058856</v>
       </c>
       <c r="G95">
-        <v>0.2002188218630898</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05415147119053868</v>
+      </c>
+      <c r="H95">
+        <v>0.05197678477482204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1677010614077131</v>
+        <v>-0.1846238901824369</v>
       </c>
       <c r="C98">
-        <v>0.05462550806584368</v>
+        <v>-0.05742298896233179</v>
       </c>
       <c r="D98">
-        <v>0.0311810090609609</v>
+        <v>0.02288542015885131</v>
       </c>
       <c r="E98">
-        <v>-0.1436294525836316</v>
+        <v>0.05571511312130252</v>
       </c>
       <c r="F98">
-        <v>0.09404552508260383</v>
+        <v>-0.01085205083523866</v>
       </c>
       <c r="G98">
-        <v>-0.3573655881012582</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07770221612597057</v>
+      </c>
+      <c r="H98">
+        <v>0.3433401599800042</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005413525831025583</v>
+        <v>-0.01766273242546999</v>
       </c>
       <c r="C101">
-        <v>0.01995969967604738</v>
+        <v>-0.0006625096998131843</v>
       </c>
       <c r="D101">
-        <v>0.01146840784675691</v>
+        <v>0.01246319481176042</v>
       </c>
       <c r="E101">
-        <v>0.05880798554660051</v>
+        <v>-0.002472992866935033</v>
       </c>
       <c r="F101">
-        <v>0.1777202341683046</v>
+        <v>-0.02071571644744415</v>
       </c>
       <c r="G101">
-        <v>0.09797870277646356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1024014390727262</v>
+      </c>
+      <c r="H101">
+        <v>-0.02306623843778019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1172023473367022</v>
+        <v>-0.1099752424754429</v>
       </c>
       <c r="C102">
-        <v>0.05292305565105726</v>
+        <v>-0.03577398141268988</v>
       </c>
       <c r="D102">
-        <v>-0.03059075842756979</v>
+        <v>0.0737842830675331</v>
       </c>
       <c r="E102">
-        <v>0.07734072413706887</v>
+        <v>-0.003136099203759604</v>
       </c>
       <c r="F102">
-        <v>-0.08040587736563816</v>
+        <v>-0.04522257591033558</v>
       </c>
       <c r="G102">
-        <v>-0.007052136579545894</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07391890128463724</v>
+      </c>
+      <c r="H102">
+        <v>-0.06448629215129434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04433646329650154</v>
+        <v>-0.01672035589069821</v>
       </c>
       <c r="C103">
-        <v>0.01209711506313793</v>
+        <v>-0.0065076332704652</v>
       </c>
       <c r="D103">
-        <v>-0.0124269217576989</v>
+        <v>0.01367863610499436</v>
       </c>
       <c r="E103">
-        <v>0.0511091471569568</v>
+        <v>-0.008434222511363804</v>
       </c>
       <c r="F103">
-        <v>0.01372252753236689</v>
+        <v>-0.00676663119336798</v>
       </c>
       <c r="G103">
-        <v>0.03919323138379417</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001902647337224925</v>
+      </c>
+      <c r="H103">
+        <v>-0.0127351622283852</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1986995779598879</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.953301557370281</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1482039424681794</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02893728883014311</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1315770562944046</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.0164339975179512</v>
+      </c>
+      <c r="H104">
+        <v>-0.04916086632011245</v>
       </c>
     </row>
   </sheetData>
